--- a/answers.xlsx
+++ b/answers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\qns and anwers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C5DCE2-C1B5-40C6-9B1B-E21D734C54DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5370554-5211-4521-9CF4-AE0C981B879A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14235" yWindow="0" windowWidth="6225" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,282 +25,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
-  <si>
-    <t xml:space="preserve">      D    24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       D    400g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      A    ONION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       D   990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E   a page width</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      E   9:36 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     C  x not -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      A   30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       D   81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     B   20%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      C  £35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     E  96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    £1.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     B    9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    D  270°</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       D                       40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      E                    5 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      A        impossible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        E                          6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     A                       11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      B                        58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      A                         3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      D                       45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       B                        15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       C                       15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      E                         E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     E              red and stripy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    C                  8 mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    D                       25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    C                  36 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B              14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    A              18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 80 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    B                 10p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     C                 4 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     C                 3 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     D                     7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     C              16:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     D             MIW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     D                   24 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      B              30 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      E               £6.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      B           3 hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     E         multiple of 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    C                   30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      E                 39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    D                54 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    6 kg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     A                     5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C                  25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A                    6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C                  £9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  A                   0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  C                    7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  D               £20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  D                24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  D          1 hours 45 mins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  B                      2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    E           240 km</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    C             2n − 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D                64%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C                    12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C                       24</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> B                    0.75</t>
-  </si>
-  <si>
-    <t>9 D        equilateral triangle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A                        A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  C                         3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  A                       57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E                 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E                 400g</t>
-  </si>
-  <si>
-    <t>D                72 cm²</t>
-  </si>
-  <si>
-    <t>C                105°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> C                 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D                18</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> B                24</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A                23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  B                 94 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D                         9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E                      11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E         50 000 000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C                        3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B                      11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D                       9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    C                      22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E                      17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    B                        7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    C                        7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    C                    l 8 l</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    E            144 cm²</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    A        7 minutes slow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  D                     15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  B                        6</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+  <si>
+    <t>400g</t>
+  </si>
+  <si>
+    <t>£35</t>
+  </si>
+  <si>
+    <t>£1.25</t>
+  </si>
+  <si>
+    <t>270°</t>
+  </si>
+  <si>
+    <t>8 mm</t>
+  </si>
+  <si>
+    <t>36 cm</t>
+  </si>
+  <si>
+    <t>80 cm</t>
+  </si>
+  <si>
+    <t>10p</t>
+  </si>
+  <si>
+    <t>3 m</t>
+  </si>
+  <si>
+    <t>MIW</t>
+  </si>
+  <si>
+    <t>3 hours</t>
+  </si>
+  <si>
+    <t>£6.30</t>
+  </si>
+  <si>
+    <t>6 kg</t>
+  </si>
+  <si>
+    <t>£9</t>
+  </si>
+  <si>
+    <t>£20</t>
+  </si>
+  <si>
+    <t>72 cm²</t>
+  </si>
+  <si>
+    <t>105°</t>
+  </si>
+  <si>
+    <t>7 minutes slow</t>
+  </si>
+  <si>
+    <t>144 cm²</t>
+  </si>
+  <si>
+    <t>l 8 l</t>
+  </si>
+  <si>
+    <t>50 000 000</t>
+  </si>
+  <si>
+    <t>94 cm</t>
+  </si>
+  <si>
+    <t>2n − 1</t>
+  </si>
+  <si>
+    <t>240 km</t>
+  </si>
+  <si>
+    <t>1 hours 45 mins</t>
+  </si>
+  <si>
+    <t>90 cm</t>
+  </si>
+  <si>
+    <t>£1.20</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
   </si>
 </sst>
 </file>
@@ -343,9 +151,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -629,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A187"/>
+  <dimension ref="A1:A172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,501 +458,503 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="1">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" s="1">
+        <v>996</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" s="2">
+        <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
+      <c r="A5" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
+      <c r="A6" s="1">
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" s="3">
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
+      <c r="A9" s="1">
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
+      <c r="A13" s="1">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
+      <c r="A14" s="1">
+        <v>897798</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
+      <c r="A15" s="1">
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>897798</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>94</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>19</v>
+      <c r="A24" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>21</v>
+      <c r="A26" s="1">
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>23</v>
+      <c r="A28" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>24</v>
+      <c r="A29" s="1">
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>25</v>
+      <c r="A30" s="1">
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>29</v>
+      <c r="A34" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>30</v>
+      <c r="A35" s="4">
+        <v>0.69027777777777777</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>91</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>18</v>
+      <c r="A38" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>33</v>
+      <c r="A40" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>34</v>
+      <c r="A41" s="1">
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>35</v>
+      <c r="A42" s="1">
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>37</v>
+      <c r="A44" s="1">
+        <v>2245</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>38</v>
+      <c r="A45" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>39</v>
+      <c r="A46" s="1">
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>40</v>
+      <c r="A47" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>42</v>
+      <c r="A49" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>43</v>
+      <c r="A50" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>45</v>
+      <c r="A52" s="1">
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>46</v>
+      <c r="A53" s="1">
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
+      <c r="A54" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>2245</v>
+      <c r="A56" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>48</v>
+      <c r="A57" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>49</v>
+      <c r="A58" s="1">
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>50</v>
+      <c r="A59" s="1">
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>51</v>
+      <c r="A60" s="1">
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>52</v>
+      <c r="A61" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>53</v>
+      <c r="A62" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>69</v>
+      <c r="A66" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>70</v>
+      <c r="A67" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>71</v>
+      <c r="A68" s="1">
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>72</v>
+      <c r="A69" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>73</v>
+      <c r="A70" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>74</v>
+      <c r="A71" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>75</v>
+      <c r="A72" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>90</v>
+      <c r="A74" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>89</v>
+      <c r="A75" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>87</v>
+      <c r="A77" s="1">
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>86</v>
+      <c r="A78" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>85</v>
+      <c r="A79" s="1">
+        <v>0.75</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>84</v>
+      <c r="A80" s="1">
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>83</v>
+      <c r="A81" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>80</v>
+      <c r="A84" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>78</v>
+      <c r="A86" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>76</v>
+      <c r="A88" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>67</v>
+      <c r="A89" s="1">
+        <v>384</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>66</v>
+      <c r="A90" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>65</v>
+      <c r="A91" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>64</v>
+      <c r="A92" s="1">
+        <v>1234</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>61</v>
+      <c r="A95" s="1">
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>60</v>
+      <c r="A96" s="1">
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>59</v>
+      <c r="A97" s="1">
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>58</v>
+      <c r="A98" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>57</v>
+      <c r="A99" s="1">
+        <v>27</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>56</v>
+      <c r="A100" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
@@ -1353,51 +1172,6 @@
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="1"/>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="1"/>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="1"/>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="1"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="1"/>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="1"/>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="1"/>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="1"/>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="1"/>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="1"/>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="1"/>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="1"/>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="1"/>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="1"/>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
